--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_18-11.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_18-11.xlsx
@@ -2397,11 +2397,11 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2432,7 +2432,7 @@
     </row>
     <row r="64" ht="25.5" customHeight="1">
       <c r="K64" s="11">
-        <v>5135.8400000000001</v>
+        <v>5150.8400000000001</v>
       </c>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
